--- a/out/test/Figori_algorithm_22.xlsx
+++ b/out/test/Figori_algorithm_22.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.73229999999999995</v>
+        <v>0.73140000000000005</v>
       </c>
       <c r="B1">
-        <v>0.73529999999999995</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="C1">
-        <v>0.71130000000000004</v>
+        <v>0.74539999999999995</v>
       </c>
       <c r="D1">
-        <v>0.77839999999999998</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="E1">
-        <v>0.76390000000000002</v>
+        <v>0.76024999999999998</v>
       </c>
       <c r="F1">
-        <v>0.76819999999999999</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="G1">
-        <v>0.71684999999999999</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="H1">
-        <v>0.73675000000000002</v>
+        <v>0.70679999999999998</v>
       </c>
       <c r="I1">
-        <v>0.74870000000000003</v>
+        <v>0.77454999999999996</v>
       </c>
       <c r="J1">
-        <v>0.75675000000000003</v>
+        <v>0.77164999999999995</v>
       </c>
       <c r="K1">
-        <v>0.70269999999999999</v>
+        <v>0.71845000000000003</v>
       </c>
       <c r="L1">
-        <v>0.77334999999999998</v>
+        <v>0.76929999999999998</v>
       </c>
       <c r="M1">
-        <v>0.7651</v>
+        <v>0.78359999999999996</v>
       </c>
       <c r="N1">
-        <v>0.72035000000000005</v>
+        <v>0.77090000000000003</v>
       </c>
       <c r="O1">
-        <v>0.73895</v>
+        <v>0.77424999999999999</v>
       </c>
       <c r="P1">
-        <v>0.74444999999999995</v>
+        <v>0.74065000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.73865000000000003</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="R1">
-        <v>0.76295000000000002</v>
+        <v>0.74180000000000001</v>
       </c>
       <c r="S1">
-        <v>0.7</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="T1">
-        <v>0.77900000000000003</v>
+        <v>0.78239999999999998</v>
       </c>
       <c r="U1">
-        <v>0.76254999999999995</v>
+        <v>0.73775000000000002</v>
       </c>
       <c r="V1">
-        <v>0.74219999999999997</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="W1">
-        <v>0.77849999999999997</v>
+        <v>0.74419999999999997</v>
       </c>
       <c r="X1">
-        <v>0.73699999999999999</v>
+        <v>0.73185</v>
       </c>
       <c r="Y1">
-        <v>0.73019999999999996</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="Z1">
-        <v>0.78610000000000002</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="AA1">
-        <v>0.73599999999999999</v>
+        <v>0.73309999999999997</v>
       </c>
       <c r="AB1">
-        <v>0.72545000000000004</v>
+        <v>0.76690000000000003</v>
       </c>
       <c r="AC1">
-        <v>0.72560000000000002</v>
+        <v>0.74239999999999995</v>
       </c>
       <c r="AD1">
-        <v>0.77929999999999999</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="AE1">
-        <v>0.73340000000000005</v>
+        <v>0.76659999999999995</v>
       </c>
       <c r="AF1">
-        <v>0.70069999999999999</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="AG1">
-        <v>0.77044999999999997</v>
+        <v>0.73950000000000005</v>
       </c>
       <c r="AH1">
-        <v>0.76959999999999995</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="AI1">
-        <v>0.75549999999999995</v>
+        <v>0.70660000000000001</v>
       </c>
       <c r="AJ1">
-        <v>0.74960000000000004</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="AK1">
-        <v>0.77190000000000003</v>
+        <v>0.76405000000000001</v>
       </c>
       <c r="AL1">
-        <v>0.78100000000000003</v>
+        <v>0.77064999999999995</v>
       </c>
       <c r="AM1">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="AN1">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="AO1">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="AP1">
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="AQ1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="AR1">
+        <v>0.77454999999999996</v>
+      </c>
+      <c r="AS1">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="AT1">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="AU1">
+        <v>0.71394999999999997</v>
+      </c>
+      <c r="AV1">
         <v>0.76824999999999999</v>
       </c>
-      <c r="AN1">
-        <v>0.72940000000000005</v>
-      </c>
-      <c r="AO1">
-        <v>0.74045000000000005</v>
-      </c>
-      <c r="AP1">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="AQ1">
-        <v>0.78010000000000002</v>
-      </c>
-      <c r="AR1">
-        <v>0.77</v>
-      </c>
-      <c r="AS1">
-        <v>0.79079999999999995</v>
-      </c>
-      <c r="AT1">
-        <v>0.77339999999999998</v>
-      </c>
-      <c r="AU1">
-        <v>0.74019999999999997</v>
-      </c>
-      <c r="AV1">
-        <v>0.69640000000000002</v>
-      </c>
       <c r="AW1">
-        <v>0.78210000000000002</v>
+        <v>0.71904999999999997</v>
       </c>
       <c r="AX1">
-        <v>0.72899999999999998</v>
+        <v>0.72804999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.73939999999999995</v>
+        <v>0.66725000000000001</v>
       </c>
       <c r="B2">
-        <v>0.70620000000000005</v>
+        <v>0.64115</v>
       </c>
       <c r="C2">
-        <v>0.53349999999999997</v>
+        <v>0.71550000000000002</v>
       </c>
       <c r="D2">
-        <v>0.74580000000000002</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="E2">
-        <v>0.82779999999999998</v>
+        <v>0.71460000000000001</v>
       </c>
       <c r="F2">
-        <v>0.82230000000000003</v>
+        <v>0.69084999999999996</v>
       </c>
       <c r="G2">
-        <v>0.62339999999999995</v>
+        <v>0.74155000000000004</v>
       </c>
       <c r="H2">
-        <v>0.78149999999999997</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="I2">
-        <v>0.8357</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="J2">
-        <v>0.71630000000000005</v>
+        <v>0.84240000000000004</v>
       </c>
       <c r="K2">
-        <v>0.65069999999999995</v>
+        <v>0.73680000000000001</v>
       </c>
       <c r="L2">
-        <v>0.74050000000000005</v>
+        <v>0.71460000000000001</v>
       </c>
       <c r="M2">
-        <v>0.73645000000000005</v>
+        <v>0.75949999999999995</v>
       </c>
       <c r="N2">
-        <v>0.68730000000000002</v>
+        <v>0.751</v>
       </c>
       <c r="O2">
-        <v>0.72940000000000005</v>
+        <v>0.68330000000000002</v>
       </c>
       <c r="P2">
-        <v>0.72975000000000001</v>
+        <v>0.63480000000000003</v>
       </c>
       <c r="Q2">
-        <v>0.64380000000000004</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="R2">
-        <v>0.81164999999999998</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="S2">
-        <v>0.6321</v>
+        <v>0.72050000000000003</v>
       </c>
       <c r="T2">
-        <v>0.84799999999999998</v>
+        <v>0.75619999999999998</v>
       </c>
       <c r="U2">
-        <v>0.8478</v>
+        <v>0.72909999999999997</v>
       </c>
       <c r="V2">
-        <v>0.83</v>
+        <v>0.72394999999999998</v>
       </c>
       <c r="W2">
-        <v>0.7712</v>
+        <v>0.7127</v>
       </c>
       <c r="X2">
-        <v>0.72975000000000001</v>
+        <v>0.56725000000000003</v>
       </c>
       <c r="Y2">
-        <v>0.69630000000000003</v>
+        <v>0.74590000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.76459999999999995</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="AA2">
-        <v>0.68510000000000004</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="AB2">
-        <v>0.69135000000000002</v>
+        <v>0.71375</v>
       </c>
       <c r="AC2">
-        <v>0.70030000000000003</v>
+        <v>0.80979999999999996</v>
       </c>
       <c r="AD2">
-        <v>0.66100000000000003</v>
+        <v>0.7379</v>
       </c>
       <c r="AE2">
-        <v>0.71409999999999996</v>
+        <v>0.71265000000000001</v>
       </c>
       <c r="AF2">
-        <v>0.85189999999999999</v>
+        <v>0.68569999999999998</v>
       </c>
       <c r="AG2">
-        <v>0.73365000000000002</v>
+        <v>0.82389999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.85340000000000005</v>
+        <v>0.77159999999999995</v>
       </c>
       <c r="AI2">
-        <v>0.75534999999999997</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="AJ2">
-        <v>0.68589999999999995</v>
+        <v>0.72389999999999999</v>
       </c>
       <c r="AK2">
-        <v>0.75829999999999997</v>
+        <v>0.71030000000000004</v>
       </c>
       <c r="AL2">
-        <v>0.86019999999999996</v>
+        <v>0.71189999999999998</v>
       </c>
       <c r="AM2">
-        <v>0.71204999999999996</v>
+        <v>0.75229999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.79769999999999996</v>
+        <v>0.65144999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.66105000000000003</v>
+        <v>0.58540000000000003</v>
       </c>
       <c r="AP2">
-        <v>0.66210000000000002</v>
+        <v>0.66010000000000002</v>
       </c>
       <c r="AQ2">
-        <v>0.7429</v>
+        <v>0.8266</v>
       </c>
       <c r="AR2">
-        <v>0.75570000000000004</v>
+        <v>0.88360000000000005</v>
       </c>
       <c r="AS2">
-        <v>0.77270000000000005</v>
+        <v>0.77729999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.72460000000000002</v>
+        <v>0.83479999999999999</v>
       </c>
       <c r="AU2">
-        <v>0.6603</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="AV2">
-        <v>0.60940000000000005</v>
+        <v>0.87460000000000004</v>
       </c>
       <c r="AW2">
-        <v>0.79959999999999998</v>
+        <v>0.71655000000000002</v>
       </c>
       <c r="AX2">
-        <v>0.78835</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.7984</v>
+        <v>0.60409999999999997</v>
       </c>
       <c r="B3">
-        <v>0.83979999999999999</v>
+        <v>0.70714999999999995</v>
       </c>
       <c r="C3">
-        <v>0.4556</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="D3">
-        <v>0.81850000000000001</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="E3">
-        <v>0.92549999999999999</v>
+        <v>0.68864999999999998</v>
       </c>
       <c r="F3">
-        <v>0.75719999999999998</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="G3">
-        <v>0.43780000000000002</v>
+        <v>0.82920000000000005</v>
       </c>
       <c r="H3">
-        <v>0.59989999999999999</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="I3">
-        <v>0.9294</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="J3">
-        <v>0.64070000000000005</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="K3">
-        <v>0.80640000000000001</v>
+        <v>0.76929999999999998</v>
       </c>
       <c r="L3">
-        <v>0.65190000000000003</v>
+        <v>0.75444999999999995</v>
       </c>
       <c r="M3">
-        <v>0.70169999999999999</v>
+        <v>0.68820000000000003</v>
       </c>
       <c r="N3">
-        <v>0.58484999999999998</v>
+        <v>0.76690000000000003</v>
       </c>
       <c r="O3">
-        <v>0.71050000000000002</v>
+        <v>0.7228</v>
       </c>
       <c r="P3">
-        <v>0.77315</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q3">
-        <v>0.71030000000000004</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="R3">
-        <v>0.7853</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="S3">
-        <v>0.62590000000000001</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="T3">
-        <v>0.7984</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="U3">
-        <v>0.75060000000000004</v>
+        <v>0.59930000000000005</v>
       </c>
       <c r="V3">
-        <v>0.83599999999999997</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="W3">
-        <v>0.875</v>
+        <v>0.79620000000000002</v>
       </c>
       <c r="X3">
-        <v>0.8034</v>
+        <v>0.50485000000000002</v>
       </c>
       <c r="Y3">
-        <v>0.62080000000000002</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="Z3">
-        <v>0.70109999999999995</v>
+        <v>0.89929999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.65529999999999999</v>
+        <v>0.85240000000000005</v>
       </c>
       <c r="AB3">
-        <v>0.73750000000000004</v>
+        <v>0.55589999999999995</v>
       </c>
       <c r="AC3">
-        <v>0.77180000000000004</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.71150000000000002</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="AE3">
-        <v>0.72819999999999996</v>
+        <v>0.55354999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.83789999999999998</v>
+        <v>0.55810000000000004</v>
       </c>
       <c r="AG3">
-        <v>0.75639999999999996</v>
+        <v>0.70189999999999997</v>
       </c>
       <c r="AH3">
-        <v>0.79754999999999998</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.76929999999999998</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="AJ3">
-        <v>0.65880000000000005</v>
+        <v>0.73740000000000006</v>
       </c>
       <c r="AK3">
-        <v>0.76719999999999999</v>
+        <v>0.75009999999999999</v>
       </c>
       <c r="AL3">
-        <v>0.87639999999999996</v>
+        <v>0.71309999999999996</v>
       </c>
       <c r="AM3">
-        <v>0.70365</v>
+        <v>0.86370000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.68799999999999994</v>
+        <v>0.68</v>
       </c>
       <c r="AO3">
-        <v>0.59750000000000003</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="AP3">
-        <v>0.65069999999999995</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="AQ3">
-        <v>0.7702</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="AR3">
-        <v>0.85580000000000001</v>
+        <v>0.70720000000000005</v>
       </c>
       <c r="AS3">
-        <v>0.72599999999999998</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="AT3">
-        <v>0.63859999999999995</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="AU3">
-        <v>0.64539999999999997</v>
+        <v>0.752</v>
       </c>
       <c r="AV3">
-        <v>0.53369999999999995</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="AW3">
-        <v>0.71940000000000004</v>
+        <v>0.60375000000000001</v>
       </c>
       <c r="AX3">
-        <v>0.42809999999999998</v>
+        <v>0.72350000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.88249999999999995</v>
+        <v>0.62429999999999997</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="C4">
-        <v>0.45850000000000002</v>
+        <v>0.60880000000000001</v>
       </c>
       <c r="D4">
+        <v>0.74719999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.93030000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.71279999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.66159999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="L4">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="M4">
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="N4">
+        <v>0.749</v>
+      </c>
+      <c r="O4">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="P4">
+        <v>0.55754999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="R4">
+        <v>0.7167</v>
+      </c>
+      <c r="S4">
+        <v>0.43219999999999997</v>
+      </c>
+      <c r="T4">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="U4">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="V4">
+        <v>0.63080000000000003</v>
+      </c>
+      <c r="W4">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="X4">
+        <v>0.40989999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="Z4">
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="AA4">
+        <v>0.74209999999999998</v>
+      </c>
+      <c r="AB4">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="AC4">
+        <v>0.79310000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="AE4">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="AF4">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="AG4">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>0.70820000000000005</v>
+      </c>
+      <c r="AI4">
+        <v>0.69589999999999996</v>
+      </c>
+      <c r="AJ4">
+        <v>0.8206</v>
+      </c>
+      <c r="AK4">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="AL4">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AM4">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="AN4">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="AO4">
+        <v>0.504</v>
+      </c>
+      <c r="AP4">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="AQ4">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="AR4">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="AS4">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="AT4">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="AU4">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="AV4">
         <v>0.74160000000000004</v>
       </c>
-      <c r="E4">
-        <v>0.88129999999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.45079999999999998</v>
-      </c>
-      <c r="H4">
-        <v>0.55530000000000002</v>
-      </c>
-      <c r="I4">
-        <v>0.93120000000000003</v>
-      </c>
-      <c r="J4">
-        <v>0.65439999999999998</v>
-      </c>
-      <c r="K4">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="L4">
-        <v>0.66820000000000002</v>
-      </c>
-      <c r="M4">
-        <v>0.93730000000000002</v>
-      </c>
-      <c r="N4">
-        <v>0.4773</v>
-      </c>
-      <c r="O4">
-        <v>0.82410000000000005</v>
-      </c>
-      <c r="P4">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="Q4">
-        <v>0.71160000000000001</v>
-      </c>
-      <c r="R4">
-        <v>0.88349999999999995</v>
-      </c>
-      <c r="S4">
-        <v>0.80920000000000003</v>
-      </c>
-      <c r="T4">
-        <v>0.72835000000000005</v>
-      </c>
-      <c r="U4">
-        <v>0.82679999999999998</v>
-      </c>
-      <c r="V4">
-        <v>0.76080000000000003</v>
-      </c>
-      <c r="W4">
-        <v>0.78385000000000005</v>
-      </c>
-      <c r="X4">
-        <v>0.70289999999999997</v>
-      </c>
-      <c r="Y4">
-        <v>0.59960000000000002</v>
-      </c>
-      <c r="Z4">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="AA4">
-        <v>0.5726</v>
-      </c>
-      <c r="AB4">
-        <v>0.60219999999999996</v>
-      </c>
-      <c r="AC4">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="AD4">
-        <v>0.72850000000000004</v>
-      </c>
-      <c r="AE4">
-        <v>0.73880000000000001</v>
-      </c>
-      <c r="AF4">
-        <v>0.94310000000000005</v>
-      </c>
-      <c r="AG4">
-        <v>0.74429999999999996</v>
-      </c>
-      <c r="AH4">
-        <v>0.68</v>
-      </c>
-      <c r="AI4">
-        <v>0.73129999999999995</v>
-      </c>
-      <c r="AJ4">
-        <v>0.65610000000000002</v>
-      </c>
-      <c r="AK4">
-        <v>0.70830000000000004</v>
-      </c>
-      <c r="AL4">
-        <v>0.79995000000000005</v>
-      </c>
-      <c r="AM4">
-        <v>0.62180000000000002</v>
-      </c>
-      <c r="AN4">
-        <v>0.51229999999999998</v>
-      </c>
-      <c r="AO4">
-        <v>0.5988</v>
-      </c>
-      <c r="AP4">
-        <v>0.5645</v>
-      </c>
-      <c r="AQ4">
-        <v>0.62009999999999998</v>
-      </c>
-      <c r="AR4">
-        <v>0.98760000000000003</v>
-      </c>
-      <c r="AS4">
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="AT4">
-        <v>0.63570000000000004</v>
-      </c>
-      <c r="AU4">
-        <v>0.56515000000000004</v>
-      </c>
-      <c r="AV4">
-        <v>0.72950000000000004</v>
-      </c>
       <c r="AW4">
-        <v>0.67090000000000005</v>
+        <v>0.59140000000000004</v>
       </c>
       <c r="AX4">
-        <v>0.34105000000000002</v>
+        <v>0.62290000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.89029999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="B5">
-        <v>0.66379999999999995</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="C5">
-        <v>0.43830000000000002</v>
+        <v>0.53810000000000002</v>
       </c>
       <c r="D5">
-        <v>0.68379999999999996</v>
+        <v>0.68320000000000003</v>
       </c>
       <c r="E5">
-        <v>0.85509999999999997</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="F5">
-        <v>0.80579999999999996</v>
+        <v>0.88859999999999995</v>
       </c>
       <c r="G5">
-        <v>0.40670000000000001</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="H5">
-        <v>0.46110000000000001</v>
+        <v>0.6956</v>
       </c>
       <c r="I5">
-        <v>0.76659999999999995</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="J5">
-        <v>0.53469999999999995</v>
+        <v>0.71220000000000006</v>
       </c>
       <c r="K5">
-        <v>0.98070000000000002</v>
+        <v>0.77529999999999999</v>
       </c>
       <c r="L5">
-        <v>0.68579999999999997</v>
+        <v>0.66969999999999996</v>
       </c>
       <c r="M5">
-        <v>0.95840000000000003</v>
+        <v>0.72209999999999996</v>
       </c>
       <c r="N5">
-        <v>0.91510000000000002</v>
+        <v>0.83579999999999999</v>
       </c>
       <c r="O5">
-        <v>0.8024</v>
+        <v>0.71040000000000003</v>
       </c>
       <c r="P5">
-        <v>0.89510000000000001</v>
+        <v>0.64929999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.76490000000000002</v>
+        <v>0.77410000000000001</v>
       </c>
       <c r="R5">
-        <v>0.78790000000000004</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="S5">
-        <v>0.80959999999999999</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="T5">
-        <v>0.81469999999999998</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="U5">
-        <v>0.8286</v>
+        <v>0.62539999999999996</v>
       </c>
       <c r="V5">
-        <v>0.61119999999999997</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="W5">
-        <v>0.61480000000000001</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="X5">
-        <v>0.87549999999999994</v>
+        <v>0.433</v>
       </c>
       <c r="Y5">
-        <v>0.65459999999999996</v>
+        <v>0.69710000000000005</v>
       </c>
       <c r="Z5">
-        <v>0.86619999999999997</v>
+        <v>0.85529999999999995</v>
       </c>
       <c r="AA5">
-        <v>0.6714</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AB5">
-        <v>0.45379999999999998</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="AC5">
-        <v>0.92279999999999995</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="AD5">
-        <v>0.68369999999999997</v>
+        <v>0.73950000000000005</v>
       </c>
       <c r="AE5">
-        <v>0.73340000000000005</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.85050000000000003</v>
+        <v>0.19819999999999999</v>
       </c>
       <c r="AG5">
-        <v>0.87429999999999997</v>
+        <v>0.53439999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.5101</v>
+        <v>0.45240000000000002</v>
       </c>
       <c r="AI5">
-        <v>0.66930000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="AJ5">
-        <v>0.6028</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="AK5">
-        <v>0.61199999999999999</v>
+        <v>0.70509999999999995</v>
       </c>
       <c r="AL5">
-        <v>0.68969999999999998</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="AM5">
-        <v>0.53269999999999995</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="AN5">
-        <v>0.59740000000000004</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="AO5">
-        <v>0.65510000000000002</v>
+        <v>0.3473</v>
       </c>
       <c r="AP5">
-        <v>0.6099</v>
+        <v>0.50860000000000005</v>
       </c>
       <c r="AQ5">
-        <v>0.42809999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
-        <v>0.95279999999999998</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="AS5">
-        <v>0.73740000000000006</v>
+        <v>0.7006</v>
       </c>
       <c r="AT5">
-        <v>0.77669999999999995</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="AU5">
-        <v>0.56379999999999997</v>
+        <v>0.55840000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.82630000000000003</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="AW5">
-        <v>0.63560000000000005</v>
+        <v>0.52010000000000001</v>
       </c>
       <c r="AX5">
-        <v>0.42209999999999998</v>
+        <v>0.67279999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.77149999999999996</v>
+        <v>0.45390000000000003</v>
       </c>
       <c r="B6">
-        <v>0.71960000000000002</v>
+        <v>0.51390000000000002</v>
       </c>
       <c r="C6">
-        <v>0.85170000000000001</v>
+        <v>0.85570000000000002</v>
       </c>
       <c r="D6">
-        <v>0.78620000000000001</v>
+        <v>0.83940000000000003</v>
       </c>
       <c r="E6">
-        <v>0.81720000000000004</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="F6">
-        <v>0.85360000000000003</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="G6">
-        <v>0.3639</v>
+        <v>0.91759999999999997</v>
       </c>
       <c r="H6">
-        <v>0.36530000000000001</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="I6">
-        <v>0.92569999999999997</v>
+        <v>0.72660000000000002</v>
       </c>
       <c r="J6">
-        <v>0.53010000000000002</v>
+        <v>0.59750000000000003</v>
       </c>
       <c r="K6">
-        <v>0.95840000000000003</v>
+        <v>0.82450000000000001</v>
       </c>
       <c r="L6">
-        <v>0.74109999999999998</v>
+        <v>0.5827</v>
       </c>
       <c r="M6">
-        <v>0.9415</v>
+        <v>0.82520000000000004</v>
       </c>
       <c r="N6">
-        <v>0.83819999999999995</v>
+        <v>0.75649999999999995</v>
       </c>
       <c r="O6">
-        <v>0.79505000000000003</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="P6">
-        <v>0.77659999999999996</v>
+        <v>0.61960000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.69799999999999995</v>
+        <v>0.88280000000000003</v>
       </c>
       <c r="R6">
-        <v>0.77800000000000002</v>
+        <v>0.82909999999999995</v>
       </c>
       <c r="S6">
-        <v>0.9123</v>
+        <v>0.437</v>
       </c>
       <c r="T6">
-        <v>0.88639999999999997</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="U6">
-        <v>0.77639999999999998</v>
+        <v>0.8417</v>
       </c>
       <c r="V6">
-        <v>0.3805</v>
+        <v>0.64449999999999996</v>
       </c>
       <c r="W6">
-        <v>0.42349999999999999</v>
+        <v>0.66610000000000003</v>
       </c>
       <c r="X6">
-        <v>0.94469999999999998</v>
+        <v>0.34570000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.629</v>
+        <v>0.6462</v>
       </c>
       <c r="Z6">
-        <v>0.84619999999999995</v>
+        <v>0.87370000000000003</v>
       </c>
       <c r="AA6">
-        <v>0.76859999999999995</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="AB6">
-        <v>0.38700000000000001</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="AC6">
-        <v>0.77849999999999997</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="AD6">
-        <v>0.37480000000000002</v>
+        <v>0.80840000000000001</v>
       </c>
       <c r="AE6">
-        <v>0.75609999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.96709999999999996</v>
+        <v>0.60219999999999996</v>
       </c>
       <c r="AG6">
-        <v>0.93669999999999998</v>
+        <v>0.4763</v>
       </c>
       <c r="AH6">
-        <v>0.37819999999999998</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.84230000000000005</v>
+        <v>0.3795</v>
       </c>
       <c r="AJ6">
-        <v>0.38900000000000001</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="AK6">
-        <v>0.55000000000000004</v>
+        <v>0.70889999999999997</v>
       </c>
       <c r="AL6">
-        <v>0.61380000000000001</v>
+        <v>0.75739999999999996</v>
       </c>
       <c r="AM6">
-        <v>0.27239999999999998</v>
+        <v>0.49590000000000001</v>
       </c>
       <c r="AN6">
-        <v>0.50009999999999999</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="AO6">
-        <v>0.66990000000000005</v>
+        <v>0.45069999999999999</v>
       </c>
       <c r="AP6">
-        <v>0.56869999999999998</v>
+        <v>0.44290000000000002</v>
       </c>
       <c r="AQ6">
-        <v>0.38390000000000002</v>
+        <v>0.80720000000000003</v>
       </c>
       <c r="AR6">
-        <v>0.91159999999999997</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="AS6">
-        <v>0.66100000000000003</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="AT6">
-        <v>0.73850000000000005</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="AU6">
-        <v>0.68479999999999996</v>
+        <v>0.79330000000000001</v>
       </c>
       <c r="AV6">
-        <v>0.72340000000000004</v>
+        <v>0.6542</v>
       </c>
       <c r="AW6">
-        <v>0.65100000000000002</v>
+        <v>0.63980000000000004</v>
       </c>
       <c r="AX6">
-        <v>0.71879999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.41010000000000002</v>
+        <v>0.57389999999999997</v>
       </c>
       <c r="B7">
-        <v>0.67469999999999997</v>
+        <v>0.4859</v>
       </c>
       <c r="C7">
-        <v>0.92210000000000003</v>
+        <v>0.86709999999999998</v>
       </c>
       <c r="D7">
-        <v>0.80889999999999995</v>
+        <v>0.67379999999999995</v>
       </c>
       <c r="E7">
-        <v>0.62190000000000001</v>
+        <v>0.7389</v>
       </c>
       <c r="F7">
-        <v>0.8115</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="G7">
-        <v>0.21940000000000001</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="H7">
-        <v>0.56359999999999999</v>
+        <v>0.96209999999999996</v>
       </c>
       <c r="I7">
-        <v>0.82830000000000004</v>
+        <v>0.74670000000000003</v>
       </c>
       <c r="J7">
-        <v>0.56879999999999997</v>
+        <v>0.54269999999999996</v>
       </c>
       <c r="K7">
-        <v>0.98240000000000005</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="L7">
-        <v>0.42399999999999999</v>
+        <v>0.42259999999999998</v>
       </c>
       <c r="M7">
-        <v>0.93230000000000002</v>
+        <v>0.7762</v>
       </c>
       <c r="N7">
-        <v>0.92600000000000005</v>
+        <v>0.71360000000000001</v>
       </c>
       <c r="O7">
-        <v>0.83579999999999999</v>
+        <v>0.43840000000000001</v>
       </c>
       <c r="P7">
-        <v>0.82679999999999998</v>
+        <v>0.49559999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.80879999999999996</v>
+        <v>0.82169999999999999</v>
       </c>
       <c r="R7">
-        <v>0.77839999999999998</v>
+        <v>0.82740000000000002</v>
       </c>
       <c r="S7">
-        <v>0.78920000000000001</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="T7">
-        <v>0.81679999999999997</v>
+        <v>0.6129</v>
       </c>
       <c r="U7">
-        <v>0.64090000000000003</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="V7">
-        <v>0.48470000000000002</v>
+        <v>0.70440000000000003</v>
       </c>
       <c r="W7">
-        <v>0.58130000000000004</v>
+        <v>0.55789999999999995</v>
       </c>
       <c r="X7">
-        <v>0.89810000000000001</v>
+        <v>0.55320000000000003</v>
       </c>
       <c r="Y7">
-        <v>0.51910000000000001</v>
+        <v>0.61029999999999995</v>
       </c>
       <c r="Z7">
-        <v>0.72829999999999995</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="AA7">
-        <v>0.74990000000000001</v>
+        <v>0.87990000000000002</v>
       </c>
       <c r="AB7">
-        <v>0.50049999999999994</v>
+        <v>0.81130000000000002</v>
       </c>
       <c r="AC7">
-        <v>0.8831</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.33750000000000002</v>
+        <v>0.86509999999999998</v>
       </c>
       <c r="AE7">
-        <v>0.56310000000000004</v>
+        <v>0.67410000000000003</v>
       </c>
       <c r="AF7">
-        <v>0.89700000000000002</v>
+        <v>0.73429999999999995</v>
       </c>
       <c r="AG7">
-        <v>0.85829999999999995</v>
+        <v>0.2457</v>
       </c>
       <c r="AH7">
-        <v>0.2218</v>
+        <v>0.36149999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.75049999999999994</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="AJ7">
-        <v>0.68840000000000001</v>
+        <v>0.83560000000000001</v>
       </c>
       <c r="AK7">
-        <v>0.31030000000000002</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="AL7">
-        <v>0.61980000000000002</v>
+        <v>0.57050000000000001</v>
       </c>
       <c r="AM7">
-        <v>0.2387</v>
+        <v>0.60880000000000001</v>
       </c>
       <c r="AN7">
-        <v>0.52339999999999998</v>
+        <v>0.7248</v>
       </c>
       <c r="AO7">
-        <v>0.62109999999999999</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="AP7">
-        <v>0.53949999999999998</v>
+        <v>0.51780000000000004</v>
       </c>
       <c r="AQ7">
-        <v>0.4108</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="AR7">
-        <v>0.93420000000000003</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AS7">
-        <v>0.71899999999999997</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="AT7">
-        <v>0.8649</v>
+        <v>0.92369999999999997</v>
       </c>
       <c r="AU7">
-        <v>0.5494</v>
+        <v>0.70009999999999994</v>
       </c>
       <c r="AV7">
-        <v>0.83640000000000003</v>
+        <v>0.65069999999999995</v>
       </c>
       <c r="AW7">
-        <v>0.67369999999999997</v>
+        <v>0.61890000000000001</v>
       </c>
       <c r="AX7">
-        <v>0.79169999999999996</v>
+        <v>0.59260000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.33929999999999999</v>
+        <v>0.5615</v>
       </c>
       <c r="B8">
-        <v>0.46179999999999999</v>
+        <v>0.42349999999999999</v>
       </c>
       <c r="C8">
-        <v>0.86299999999999999</v>
+        <v>0.84250000000000003</v>
       </c>
       <c r="D8">
-        <v>0.73909999999999998</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E8">
-        <v>0.47489999999999999</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="F8">
-        <v>0.81059999999999999</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="G8">
-        <v>8.9300000000000004E-2</v>
+        <v>0.66910000000000003</v>
       </c>
       <c r="H8">
-        <v>0.6381</v>
+        <v>0.92520000000000002</v>
       </c>
       <c r="I8">
-        <v>0.77680000000000005</v>
+        <v>0.80589999999999995</v>
       </c>
       <c r="J8">
-        <v>0.51829999999999998</v>
+        <v>0.4602</v>
       </c>
       <c r="K8">
-        <v>0.89070000000000005</v>
+        <v>0.65029999999999999</v>
       </c>
       <c r="L8">
-        <v>0.30559999999999998</v>
+        <v>0.66469999999999996</v>
       </c>
       <c r="M8">
-        <v>0.93600000000000005</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="N8">
-        <v>0.92620000000000002</v>
+        <v>0.54430000000000001</v>
       </c>
       <c r="O8">
-        <v>0.89859999999999995</v>
+        <v>0.3745</v>
       </c>
       <c r="P8">
-        <v>0.69059999999999999</v>
+        <v>0.53310000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.79720000000000002</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="R8">
-        <v>0.72019999999999995</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="S8">
-        <v>0.73380000000000001</v>
+        <v>0.73040000000000005</v>
       </c>
       <c r="T8">
-        <v>0.92979999999999996</v>
+        <v>0.61309999999999998</v>
       </c>
       <c r="U8">
-        <v>0.80369999999999997</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="V8">
-        <v>0.49509999999999998</v>
+        <v>0.82250000000000001</v>
       </c>
       <c r="W8">
-        <v>0.45860000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="X8">
-        <v>0.91549999999999998</v>
+        <v>0.66859999999999997</v>
       </c>
       <c r="Y8">
-        <v>0.65769999999999995</v>
+        <v>0.52310000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.58409999999999995</v>
+        <v>0.60519999999999996</v>
       </c>
       <c r="AA8">
-        <v>0.62460000000000004</v>
+        <v>0.62890000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.46260000000000001</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.96550000000000002</v>
+        <v>0.81869999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.48759999999999998</v>
+        <v>0.77249999999999996</v>
       </c>
       <c r="AE8">
-        <v>0.57640000000000002</v>
+        <v>0.62280000000000002</v>
       </c>
       <c r="AF8">
-        <v>0.83779999999999999</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="AG8">
-        <v>0.97809999999999997</v>
+        <v>0.28129999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.1338</v>
+        <v>0.32679999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.59379999999999999</v>
+        <v>0.59609999999999996</v>
       </c>
       <c r="AJ8">
-        <v>0.51415</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="AK8">
-        <v>0.46350000000000002</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="AL8">
-        <v>0.74919999999999998</v>
+        <v>0.47289999999999999</v>
       </c>
       <c r="AM8">
-        <v>0.25779999999999997</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.45300000000000001</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="AO8">
-        <v>0.73599999999999999</v>
+        <v>0.56359999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.57350000000000001</v>
+        <v>0.3664</v>
       </c>
       <c r="AQ8">
-        <v>0.45390000000000003</v>
+        <v>0.60440000000000005</v>
       </c>
       <c r="AR8">
-        <v>0.88619999999999999</v>
+        <v>0.42870000000000003</v>
       </c>
       <c r="AS8">
-        <v>0.80389999999999995</v>
+        <v>0.56710000000000005</v>
       </c>
       <c r="AT8">
-        <v>0.84009999999999996</v>
+        <v>0.99019999999999997</v>
       </c>
       <c r="AU8">
-        <v>0.37840000000000001</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.79890000000000005</v>
+        <v>0.59760000000000002</v>
       </c>
       <c r="AW8">
-        <v>0.71499999999999997</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="AX8">
-        <v>0.65869999999999995</v>
+        <v>0.35580000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.18029999999999999</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="B9">
-        <v>0.48089999999999999</v>
+        <v>0.23169999999999999</v>
       </c>
       <c r="C9">
-        <v>0.45329999999999998</v>
+        <v>0.87719999999999998</v>
       </c>
       <c r="D9">
-        <v>0.62139999999999995</v>
+        <v>0.77410000000000001</v>
       </c>
       <c r="E9">
-        <v>0.36080000000000001</v>
+        <v>0.85509999999999997</v>
       </c>
       <c r="F9">
-        <v>0.60640000000000005</v>
+        <v>0.80940000000000001</v>
       </c>
       <c r="G9">
-        <v>0.1615</v>
+        <v>0.54430000000000001</v>
       </c>
       <c r="H9">
-        <v>0.48599999999999999</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="I9">
-        <v>0.66879999999999995</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="J9">
-        <v>0.66359999999999997</v>
+        <v>0.58109999999999995</v>
       </c>
       <c r="K9">
-        <v>0.88170000000000004</v>
+        <v>0.53869999999999996</v>
       </c>
       <c r="L9">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="N9">
         <v>0.41249999999999998</v>
       </c>
-      <c r="M9">
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="N9">
-        <v>0.95</v>
-      </c>
       <c r="O9">
-        <v>0.8296</v>
+        <v>0.37009999999999998</v>
       </c>
       <c r="P9">
-        <v>0.84640000000000004</v>
+        <v>0.54039999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.84209999999999996</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="R9">
-        <v>0.62809999999999999</v>
+        <v>0.9536</v>
       </c>
       <c r="S9">
-        <v>0.60019999999999996</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="T9">
-        <v>0.92579999999999996</v>
+        <v>0.7147</v>
       </c>
       <c r="U9">
-        <v>0.80630000000000002</v>
+        <v>0.95789999999999997</v>
       </c>
       <c r="V9">
-        <v>0.49170000000000003</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="W9">
-        <v>0.49619999999999997</v>
+        <v>0.82550000000000001</v>
       </c>
       <c r="X9">
-        <v>0.86229999999999996</v>
+        <v>0.69669999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.4854</v>
+        <v>0.58120000000000005</v>
       </c>
       <c r="Z9">
-        <v>0.45860000000000001</v>
+        <v>0.75670000000000004</v>
       </c>
       <c r="AA9">
-        <v>0.53890000000000005</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.44090000000000001</v>
+        <v>0.81059999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.95340000000000003</v>
+        <v>0.82779999999999998</v>
       </c>
       <c r="AD9">
-        <v>0.51570000000000005</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="AE9">
-        <v>0.39200000000000002</v>
+        <v>0.6915</v>
       </c>
       <c r="AF9">
-        <v>0.65980000000000005</v>
+        <v>0.55820000000000003</v>
       </c>
       <c r="AG9">
-        <v>0.9778</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="AH9">
-        <v>5.3499999999999999E-2</v>
+        <v>0.47589999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.66320000000000001</v>
+        <v>0.62050000000000005</v>
       </c>
       <c r="AJ9">
-        <v>0.53869999999999996</v>
+        <v>0.63990000000000002</v>
       </c>
       <c r="AK9">
-        <v>0.73760000000000003</v>
+        <v>0.32479999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.80100000000000005</v>
+        <v>0.47960000000000003</v>
       </c>
       <c r="AM9">
-        <v>0.21829999999999999</v>
+        <v>0.60440000000000005</v>
       </c>
       <c r="AN9">
-        <v>0.44879999999999998</v>
+        <v>0.60509999999999997</v>
       </c>
       <c r="AO9">
-        <v>0.66649999999999998</v>
+        <v>0.40250000000000002</v>
       </c>
       <c r="AP9">
-        <v>0.49819999999999998</v>
+        <v>0.50819999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.44450000000000001</v>
+        <v>0.36209999999999998</v>
       </c>
       <c r="AR9">
-        <v>0.87860000000000005</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="AS9">
-        <v>0.72419999999999995</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="AT9">
-        <v>0.81840000000000002</v>
+        <v>0.96679999999999999</v>
       </c>
       <c r="AU9">
-        <v>0.38190000000000002</v>
+        <v>0.39979999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.90010000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="AW9">
-        <v>0.54779999999999995</v>
+        <v>0.41210000000000002</v>
       </c>
       <c r="AX9">
-        <v>0.73089999999999999</v>
+        <v>0.1595</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.18640000000000001</v>
+        <v>0.3271</v>
       </c>
       <c r="B10">
-        <v>0.46879999999999999</v>
+        <v>0.34320000000000001</v>
       </c>
       <c r="C10">
-        <v>0.31580000000000003</v>
+        <v>0.81830000000000003</v>
       </c>
       <c r="D10">
-        <v>0.76529999999999998</v>
+        <v>0.66639999999999999</v>
       </c>
       <c r="E10">
-        <v>0.39079999999999998</v>
+        <v>0.78759999999999997</v>
       </c>
       <c r="F10">
-        <v>0.64639999999999997</v>
+        <v>0.91169999999999995</v>
       </c>
       <c r="G10">
-        <v>0.1234</v>
+        <v>0.44140000000000001</v>
       </c>
       <c r="H10">
-        <v>0.49399999999999999</v>
+        <v>0.3503</v>
       </c>
       <c r="I10">
-        <v>0.71850000000000003</v>
+        <v>0.63939999999999997</v>
       </c>
       <c r="J10">
-        <v>0.64749999999999996</v>
+        <v>0.5474</v>
       </c>
       <c r="K10">
-        <v>0.7742</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="L10">
-        <v>0.34839999999999999</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="M10">
-        <v>0.66759999999999997</v>
+        <v>0.7379</v>
       </c>
       <c r="N10">
-        <v>0.92069999999999996</v>
+        <v>0.36030000000000001</v>
       </c>
       <c r="O10">
-        <v>0.83150000000000002</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="P10">
-        <v>0.63690000000000002</v>
+        <v>0.20349999999999999</v>
       </c>
       <c r="Q10">
-        <v>0.79079999999999995</v>
+        <v>0.9244</v>
       </c>
       <c r="R10">
-        <v>0.54590000000000005</v>
+        <v>0.87739999999999996</v>
       </c>
       <c r="S10">
-        <v>0.7016</v>
+        <v>0.81420000000000003</v>
       </c>
       <c r="T10">
-        <v>0.94340000000000002</v>
+        <v>0.63</v>
       </c>
       <c r="U10">
-        <v>0.73009999999999997</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="V10">
-        <v>0.46289999999999998</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="W10">
-        <v>0.5181</v>
+        <v>0.7893</v>
       </c>
       <c r="X10">
-        <v>0.90359999999999996</v>
+        <v>0.7137</v>
       </c>
       <c r="Y10">
-        <v>0.31130000000000002</v>
+        <v>0.3861</v>
       </c>
       <c r="Z10">
-        <v>0.47749999999999998</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.56059999999999999</v>
+        <v>0.45569999999999999</v>
       </c>
       <c r="AB10">
-        <v>0.41930000000000001</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="AC10">
-        <v>0.85980000000000001</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="AD10">
-        <v>0.52780000000000005</v>
+        <v>0.60240000000000005</v>
       </c>
       <c r="AE10">
-        <v>0.43909999999999999</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="AF10">
-        <v>0.77629999999999999</v>
+        <v>0.4229</v>
       </c>
       <c r="AG10">
-        <v>0.9879</v>
+        <v>0.4531</v>
       </c>
       <c r="AH10">
-        <v>5.4600000000000003E-2</v>
+        <v>0.32190000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.66069999999999995</v>
+        <v>0.76459999999999995</v>
       </c>
       <c r="AJ10">
-        <v>0.80600000000000005</v>
+        <v>0.50829999999999997</v>
       </c>
       <c r="AK10">
-        <v>0.74270000000000003</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="AL10">
-        <v>0.80049999999999999</v>
+        <v>0.3639</v>
       </c>
       <c r="AM10">
-        <v>0.50990000000000002</v>
+        <v>0.751</v>
       </c>
       <c r="AN10">
-        <v>0.48309999999999997</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="AO10">
-        <v>0.65349999999999997</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.58169999999999999</v>
+        <v>0.69040000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.38090000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="AR10">
-        <v>0.84899999999999998</v>
+        <v>0.29389999999999999</v>
       </c>
       <c r="AS10">
-        <v>0.70620000000000005</v>
+        <v>0.5837</v>
       </c>
       <c r="AT10">
-        <v>0.82540000000000002</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="AU10">
-        <v>0.36980000000000002</v>
+        <v>0.42549999999999999</v>
       </c>
       <c r="AV10">
-        <v>0.86319999999999997</v>
+        <v>0.62250000000000005</v>
       </c>
       <c r="AW10">
-        <v>0.45440000000000003</v>
+        <v>0.59050000000000002</v>
       </c>
       <c r="AX10">
-        <v>0.62990000000000002</v>
+        <v>0.14580000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8.0699999999999994E-2</v>
+        <v>0.5272</v>
       </c>
       <c r="B11">
-        <v>0.25059999999999999</v>
+        <v>0.68879999999999997</v>
       </c>
       <c r="C11">
-        <v>0.13109999999999999</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="D11">
-        <v>0.7097</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="E11">
-        <v>0.4758</v>
+        <v>0.71279999999999999</v>
       </c>
       <c r="F11">
-        <v>0.43330000000000002</v>
+        <v>0.88060000000000005</v>
       </c>
       <c r="G11">
-        <v>0.13730000000000001</v>
+        <v>0.4148</v>
       </c>
       <c r="H11">
-        <v>0.42180000000000001</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="I11">
-        <v>0.60329999999999995</v>
+        <v>0.70850000000000002</v>
       </c>
       <c r="J11">
-        <v>0.53100000000000003</v>
+        <v>0.6018</v>
       </c>
       <c r="K11">
-        <v>0.64490000000000003</v>
+        <v>0.56459999999999999</v>
       </c>
       <c r="L11">
-        <v>0.48039999999999999</v>
+        <v>0.40739999999999998</v>
       </c>
       <c r="M11">
-        <v>0.60050000000000003</v>
+        <v>0.77239999999999998</v>
       </c>
       <c r="N11">
-        <v>0.92910000000000004</v>
+        <v>0.52129999999999999</v>
       </c>
       <c r="O11">
-        <v>0.73870000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="P11">
-        <v>0.8085</v>
+        <v>0.2747</v>
       </c>
       <c r="Q11">
-        <v>0.68579999999999997</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="R11">
-        <v>0.55810000000000004</v>
+        <v>0.90139999999999998</v>
       </c>
       <c r="S11">
-        <v>0.61699999999999999</v>
+        <v>0.55669999999999997</v>
       </c>
       <c r="T11">
-        <v>0.92930000000000001</v>
+        <v>0.5917</v>
       </c>
       <c r="U11">
-        <v>0.78129999999999999</v>
+        <v>0.8871</v>
       </c>
       <c r="V11">
-        <v>0.32969999999999999</v>
+        <v>0.84830000000000005</v>
       </c>
       <c r="W11">
-        <v>0.5454</v>
+        <v>0.63849999999999996</v>
       </c>
       <c r="X11">
-        <v>0.79790000000000005</v>
+        <v>0.62939999999999996</v>
       </c>
       <c r="Y11">
-        <v>0.59250000000000003</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.69550000000000001</v>
+        <v>0.74139999999999995</v>
       </c>
       <c r="AA11">
-        <v>0.72070000000000001</v>
+        <v>0.2165</v>
       </c>
       <c r="AB11">
-        <v>0.41289999999999999</v>
+        <v>0.7107</v>
       </c>
       <c r="AC11">
-        <v>0.68140000000000001</v>
+        <v>0.7218</v>
       </c>
       <c r="AD11">
-        <v>0.47099999999999997</v>
+        <v>0.67379999999999995</v>
       </c>
       <c r="AE11">
-        <v>0.44390000000000002</v>
+        <v>0.60570000000000002</v>
       </c>
       <c r="AF11">
-        <v>0.74199999999999999</v>
+        <v>0.4204</v>
       </c>
       <c r="AG11">
-        <v>0.99360000000000004</v>
+        <v>0.4022</v>
       </c>
       <c r="AH11">
-        <v>3.6499999999999998E-2</v>
+        <v>0.60440000000000005</v>
       </c>
       <c r="AI11">
-        <v>0.57589999999999997</v>
+        <v>0.71750000000000003</v>
       </c>
       <c r="AJ11">
-        <v>0.78369999999999995</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="AK11">
-        <v>0.6028</v>
+        <v>0</v>
       </c>
       <c r="AL11">
-        <v>0.73480000000000001</v>
+        <v>0.43940000000000001</v>
       </c>
       <c r="AM11">
-        <v>0.38390000000000002</v>
+        <v>0.76329999999999998</v>
       </c>
       <c r="AN11">
-        <v>0.38279999999999997</v>
+        <v>0.7107</v>
       </c>
       <c r="AO11">
-        <v>0.62160000000000004</v>
+        <v>0.4536</v>
       </c>
       <c r="AP11">
-        <v>0.55779999999999996</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="AQ11">
-        <v>0.26790000000000003</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.87419999999999998</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="AS11">
-        <v>0.60560000000000003</v>
+        <v>0.55979999999999996</v>
       </c>
       <c r="AT11">
-        <v>0.90990000000000004</v>
+        <v>0.95779999999999998</v>
       </c>
       <c r="AU11">
-        <v>0.51839999999999997</v>
+        <v>0.33350000000000002</v>
       </c>
       <c r="AV11">
-        <v>0.84709999999999996</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="AW11">
-        <v>0.55059999999999998</v>
+        <v>0.61140000000000005</v>
       </c>
       <c r="AX11">
-        <v>0.52829999999999999</v>
+        <v>7.6600000000000001E-2</v>
       </c>
     </row>
   </sheetData>
